--- a/data/trans_dic/P37_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P37_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad</t>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,17 +705,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +725,72 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>45,33%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42,16%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39,71%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39,14%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44,96%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>40,18%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>39,02%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>38,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>40,51%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>45,17%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>38,11%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>38,09%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>39,78%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>38,65%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40,71%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>43,08%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>45,14%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>41,13%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,12; 41,64</t>
+          <t>33,63; 43,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,49; 42,07</t>
+          <t>33,77; 42,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,94; 43,8</t>
+          <t>35,77; 44,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,34; 44,9</t>
+          <t>37,12; 45,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,56; 42,96</t>
+          <t>41,23; 49,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,89; 41,9</t>
+          <t>37,33; 48,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,46; 43,99</t>
+          <t>35,8; 43,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,16; 48,8</t>
+          <t>35,68; 42,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,15; 41,08</t>
+          <t>37,63; 45,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,33; 40,64</t>
+          <t>41,56; 48,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,99; 42,9</t>
+          <t>41,29; 48,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,43; 45,49</t>
+          <t>36,04; 44,31</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>35,98; 42,06</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>35,9; 41,46</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>38,02; 43,63</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>40,66; 45,95</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>42,36; 47,51</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>38,02; 44,9</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>38,56%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>41,69%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>35,18%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>33,36%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>45,12%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>35,9%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>34,12%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,11%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>39,62%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>35,49%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>40,94%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,02; 40,29</t>
+          <t>30,43; 40,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,85; 33,35</t>
+          <t>25,3; 33,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,0; 38,36</t>
+          <t>29,57; 39,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,34; 46,22</t>
+          <t>30,62; 45,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,72; 40,92</t>
+          <t>26,15; 38,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,82; 41,48</t>
+          <t>30,94; 41,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,51; 43,75</t>
+          <t>32,43; 41,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,37; 48,85</t>
+          <t>34,44; 42,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,79; 38,57</t>
+          <t>35,89; 43,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,36; 36,4</t>
+          <t>35,03; 49,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,48; 39,74</t>
+          <t>31,63; 44,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,3; 44,59</t>
+          <t>40,52; 49,99</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>32,75; 39,67</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>31,28; 37,17</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>34,05; 40,16</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>35,04; 45,15</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>31,13; 40,09</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>37,22; 44,82</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>41,34%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38,77%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>32,08%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>37,3%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>33,46%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>32,09%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>38,1%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>32,47%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>34,79%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,2; 41,91</t>
+          <t>21,55; 43,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,7; 44,61</t>
+          <t>27,46; 46,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,69; 35,89</t>
+          <t>19,98; 34,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,17; 44,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,45; 47,41</t>
+          <t>25,8; 52,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,12; 45,39</t>
+          <t>26,16; 42,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>33,85; 48,89</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31,51; 46,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>25,43; 39,95</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>31,19; 42,96</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,04; 37,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>25,37; 43,04</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>26,14; 41,83</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>32,37; 44,17</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>26,74; 38,97</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>28,49; 42,77</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>39,16%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>44,42%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>36,25%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>36,15%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>41,33%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>37,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>36,82%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>38,33%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>42,29%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>42,91%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>40,31%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,74; 38,17</t>
+          <t>33,28; 39,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,11; 37,06</t>
+          <t>31,71; 37,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,3; 38,61</t>
+          <t>33,08; 39,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,06; 44,08</t>
+          <t>36,83; 44,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,71; 40,81</t>
+          <t>38,95; 45,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,94; 40,7</t>
+          <t>35,53; 43,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,18; 42,45</t>
+          <t>35,08; 40,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,34; 47,69</t>
+          <t>36,8; 41,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,09; 38,53</t>
+          <t>38,14; 43,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,26; 38,0</t>
+          <t>41,26; 47,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 39,56</t>
+          <t>40,42; 46,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,88; 44,78</t>
+          <t>38,18; 44,63</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>34,76; 39,18</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>34,74; 38,64</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>36,39; 40,12</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>39,83; 44,62</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>40,63; 45,24</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>38,04; 42,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>476.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>576.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>622.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>676.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>690.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>617161</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>612423</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>631413</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>93304</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>100215</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>685554</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>697042</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>694632</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>739835</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>105788</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>103746</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>708801</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1314203</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1307055</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1371248</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>199092</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>203961</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1394355</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>542275; 694853</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>542725; 677751</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>567296; 709745</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>84623; 102824</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>91159; 109510</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>606924; 794762</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>628519; 763107</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>633180; 750744</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>670831; 802404</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>97321; 114436</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>95292; 112352</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>635693; 781532</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1211723; 1416372</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1214127; 1402027</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1280746; 1469788</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>187895; 212354</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>191399; 214648</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1288726; 1522127</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>437.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>473042</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>401547</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>462948</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27152</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23049</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>502866</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>489290</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>512331</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>531283</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26996</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25177</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>618720</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>962331</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>913878</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>994230</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>54148</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>48225</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1121586</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>405778; 544346</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>341371; 458451</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>395831; 523894</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22026; 32733</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18379; 27224</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>423333; 570230</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>436903; 558818</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>457571; 567628</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>480980; 587835</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22685; 31764</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20744; 29418</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>555625; 685426</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>877992; 1063404</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>837771; 995326</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>912178; 1075950</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>47894; 61709</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>42296; 54477</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1019536; 1227797</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>124484</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>144627</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>107205</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>150435</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>128966</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>159075</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>153452</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>135830</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>253450</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>303702</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>260656</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>286265</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>87133; 177409</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>113271; 190915</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81336; 141947</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>107553; 216841</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>100882; 163226</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>130254; 188119</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>124714; 184114</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>102990; 174717</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>206505; 330404</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>258021; 352103</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>214715; 312859</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>234407; 351958</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>464.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>629.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>678.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>513.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>882.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1093.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1164.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>857.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>865.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>910.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1214687</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1158597</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1201566</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>120456</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>123264</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1338855</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1315298</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1366038</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1424569</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>132784</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>128923</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1463351</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2529985</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2524635</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2626135</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>253240</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>252186</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2802206</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1114949; 1328707</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1068360; 1259184</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1102135; 1312552</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>110440; 132053</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>113495; 133824</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1211857; 1478634</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1223903; 1420587</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1283682; 1441923</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1342220; 1514390</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>123355; 142631</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>119786; 138103</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1351761; 1580328</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2376998; 2679396</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2381899; 2649873</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2493021; 2748677</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>238512; 267221</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>238803; 265904</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2644706; 2978054</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
